--- a/Migration-Simulator/main_data/population.xlsx
+++ b/Migration-Simulator/main_data/population.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{55526B16-6D60-4450-B53B-5F7DBF3C5C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07EAA4BD-E872-4F04-955F-A4FC760A4CE8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD6B8BE-7E71-448B-8514-AFD2E4DED7AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{7DD6B8BE-7E71-448B-8514-AFD2E4DED7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAFAA91-660B-40DA-9DF7-095AFA260D21}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
